--- a/Detailed Protocol and Materials List/Social Interaction Chamber Materials.xlsx
+++ b/Detailed Protocol and Materials List/Social Interaction Chamber Materials.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elliemctaggart/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elliemctaggart/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="106" documentId="13_ncr:1_{237C8260-147D-9846-B540-CD2E0A384C87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E2B21B2-4E5F-4CCB-B490-15C3EE960506}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AAEE2F5-CBE2-A64D-A0A2-D64F1DDD13CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38320" yWindow="-7400" windowWidth="38320" windowHeight="19840" firstSheet="4" activeTab="4" xr2:uid="{DD47EE2A-7605-C446-9770-63AE1A0CDA1A}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17620" activeTab="4" xr2:uid="{DD47EE2A-7605-C446-9770-63AE1A0CDA1A}"/>
   </bookViews>
   <sheets>
-    <sheet name="In-House Resources" sheetId="6" r:id="rId1"/>
-    <sheet name="Custom Resources" sheetId="5" r:id="rId2"/>
-    <sheet name="Software" sheetId="7" r:id="rId3"/>
-    <sheet name="PCB BOM" sheetId="4" r:id="rId4"/>
-    <sheet name="Detailed Protocol" sheetId="8" r:id="rId5"/>
+    <sheet name="Detailed Protocol" sheetId="8" r:id="rId1"/>
+    <sheet name="In-House Resources" sheetId="6" r:id="rId2"/>
+    <sheet name="Custom Resources" sheetId="5" r:id="rId3"/>
+    <sheet name="Software" sheetId="7" r:id="rId4"/>
+    <sheet name="PCB BOM" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -472,7 +472,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -647,10 +647,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -985,23 +985,419 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8C52D62-C1C2-49A3-B434-4F3EF1DF2721}">
+  <dimension ref="A1:D27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="25.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="16"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="4">
+        <v>92644740473</v>
+      </c>
+      <c r="D17" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6089EF7-097F-7D4D-AC0A-5F17712531C0}">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView zoomScale="118" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="37.5" customWidth="1"/>
-    <col min="2" max="2" width="27.375" customWidth="1"/>
-    <col min="3" max="3" width="21.375" customWidth="1"/>
-    <col min="4" max="4" width="12.125" customWidth="1"/>
+    <col min="2" max="2" width="27.33203125" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" customWidth="1"/>
     <col min="5" max="5" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -1010,7 +1406,7 @@
       <c r="D1" s="16"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5" ht="15.75">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
@@ -1024,7 +1420,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -1039,7 +1435,7 @@
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
@@ -1054,7 +1450,7 @@
       </c>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>12</v>
       </c>
@@ -1069,7 +1465,7 @@
       </c>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>15</v>
       </c>
@@ -1084,7 +1480,7 @@
       </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>16</v>
       </c>
@@ -1099,7 +1495,7 @@
       </c>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>18</v>
       </c>
@@ -1114,7 +1510,7 @@
       </c>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>21</v>
       </c>
@@ -1129,7 +1525,7 @@
       </c>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>23</v>
       </c>
@@ -1144,7 +1540,7 @@
       </c>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>25</v>
       </c>
@@ -1159,7 +1555,7 @@
       </c>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>29</v>
       </c>
@@ -1174,7 +1570,7 @@
       </c>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>31</v>
       </c>
@@ -1189,7 +1585,7 @@
       </c>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>33</v>
       </c>
@@ -1204,7 +1600,7 @@
       </c>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>35</v>
       </c>
@@ -1219,7 +1615,7 @@
       </c>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>37</v>
       </c>
@@ -1234,7 +1630,7 @@
       </c>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>39</v>
       </c>
@@ -1248,7 +1644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>42</v>
       </c>
@@ -1262,13 +1658,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
         <v>44</v>
       </c>
@@ -1277,7 +1673,7 @@
       <c r="D20" s="12"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
         <v>1</v>
       </c>
@@ -1292,7 +1688,7 @@
       </c>
       <c r="E21" s="3"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>46</v>
       </c>
@@ -1307,7 +1703,7 @@
       </c>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>49</v>
       </c>
@@ -1322,7 +1718,7 @@
       </c>
       <c r="E23" s="3"/>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>51</v>
       </c>
@@ -1337,7 +1733,7 @@
       </c>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>54</v>
       </c>
@@ -1352,7 +1748,7 @@
       </c>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>55</v>
       </c>
@@ -1367,7 +1763,7 @@
       </c>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1384,23 +1780,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F93ACB1D-FED4-E24C-A0F5-0404B0793703}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView zoomScale="118" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.5" customWidth="1"/>
     <col min="2" max="2" width="12.5" customWidth="1"/>
-    <col min="3" max="3" width="25.375" customWidth="1"/>
-    <col min="4" max="4" width="9.75" customWidth="1"/>
+    <col min="3" max="3" width="25.33203125" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
         <v>58</v>
       </c>
@@ -1408,7 +1804,7 @@
       <c r="C1" s="18"/>
       <c r="D1" s="19"/>
     </row>
-    <row r="2" spans="1:4" ht="15.75">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -1422,7 +1818,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>61</v>
       </c>
@@ -1436,13 +1832,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" ht="15.75">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>64</v>
       </c>
@@ -1450,7 +1846,7 @@
       <c r="C5" s="15"/>
       <c r="D5" s="16"/>
     </row>
-    <row r="6" spans="1:4" ht="15.75">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>1</v>
       </c>
@@ -1464,7 +1860,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>65</v>
       </c>
@@ -1478,7 +1874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>68</v>
       </c>
@@ -1492,7 +1888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>69</v>
       </c>
@@ -1506,7 +1902,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.75">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>71</v>
       </c>
@@ -1520,7 +1916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.75">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>72</v>
       </c>
@@ -1534,7 +1930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.75">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>73</v>
       </c>
@@ -1548,7 +1944,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.75">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>76</v>
       </c>
@@ -1562,7 +1958,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.75">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>77</v>
       </c>
@@ -1576,8 +1972,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.75"/>
-    <row r="16" spans="1:4" ht="15.75"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A5:D5"/>
@@ -1587,23 +1981,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88FD78D1-9DDB-4C43-AE18-ADBC6F5879F4}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.125" customWidth="1"/>
+    <col min="1" max="1" width="34.1640625" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="45.875" customWidth="1"/>
-    <col min="4" max="4" width="17.375" customWidth="1"/>
+    <col min="3" max="3" width="45.83203125" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
         <v>78</v>
       </c>
@@ -1611,7 +2005,7 @@
       <c r="C1" s="15"/>
       <c r="D1" s="16"/>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
@@ -1625,7 +2019,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>80</v>
       </c>
@@ -1639,7 +2033,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>84</v>
       </c>
@@ -1653,7 +2047,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>87</v>
       </c>
@@ -1667,7 +2061,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>91</v>
       </c>
@@ -1681,7 +2075,6 @@
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
@@ -1696,24 +2089,24 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D82157B5-8E2C-094A-A74F-92DA4F6F95E8}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView zoomScale="117" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="3" max="3" width="26.125" customWidth="1"/>
+    <col min="3" max="3" width="26.1640625" customWidth="1"/>
     <col min="4" max="4" width="25.5" customWidth="1"/>
-    <col min="5" max="5" width="40.125" customWidth="1"/>
+    <col min="5" max="5" width="40.1640625" customWidth="1"/>
     <col min="6" max="6" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
         <v>95</v>
       </c>
@@ -1723,7 +2116,7 @@
       <c r="E1" s="20"/>
       <c r="F1" s="20"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>96</v>
       </c>
@@ -1743,7 +2136,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>101</v>
       </c>
@@ -1763,7 +2156,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>105</v>
       </c>
@@ -1783,7 +2176,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>110</v>
       </c>
@@ -1803,7 +2196,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>115</v>
       </c>
@@ -1823,7 +2216,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>120</v>
       </c>
@@ -1843,7 +2236,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>124</v>
       </c>
@@ -1863,7 +2256,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>129</v>
       </c>
@@ -1883,7 +2276,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>132</v>
       </c>
@@ -1903,7 +2296,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>136</v>
       </c>
@@ -1931,403 +2324,27 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8C52D62-C1C2-49A3-B434-4F3EF1DF2721}">
-  <dimension ref="A1:D27"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
-  <cols>
-    <col min="1" max="1" width="25.625" customWidth="1"/>
-    <col min="2" max="2" width="13.125" customWidth="1"/>
-    <col min="3" max="3" width="20.75" customWidth="1"/>
-    <col min="4" max="4" width="10" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="16"/>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D3" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D4" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D5" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D6" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D7" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D10" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="4">
-        <v>92644740473</v>
-      </c>
-      <c r="D17" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D21" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D22" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D23" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D25" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D26" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a5f26fb6-5109-4de7-abc5-172a6b2dbab6" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a6241740-fd18-4816-b841-1ab3b6093ed9">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010085667585C9F7244B9E125384F842882D" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="227f2e08ceb4f0b39a3cb5ada822cfdc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a6241740-fd18-4816-b841-1ab3b6093ed9" xmlns:ns3="a5f26fb6-5109-4de7-abc5-172a6b2dbab6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ad3cc4f56124bba8647a7f41a7fe896a" ns2:_="" ns3:_="">
     <xsd:import namespace="a6241740-fd18-4816-b841-1ab3b6093ed9"/>
@@ -2522,34 +2539,40 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a5f26fb6-5109-4de7-abc5-172a6b2dbab6" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a6241740-fd18-4816-b841-1ab3b6093ed9">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC41234C-C8EC-4617-A4BB-0AE632D71941}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{870DFE14-D417-4609-9277-5E75292B480D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C9BB41A-B45A-4011-ADD4-DBE9A172D8F9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C9BB41A-B45A-4011-ADD4-DBE9A172D8F9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a5f26fb6-5109-4de7-abc5-172a6b2dbab6"/>
+    <ds:schemaRef ds:uri="a6241740-fd18-4816-b841-1ab3b6093ed9"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{870DFE14-D417-4609-9277-5E75292B480D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC41234C-C8EC-4617-A4BB-0AE632D71941}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="a6241740-fd18-4816-b841-1ab3b6093ed9"/>
+    <ds:schemaRef ds:uri="a5f26fb6-5109-4de7-abc5-172a6b2dbab6"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Detailed Protocol and Materials List/Social Interaction Chamber Materials.xlsx
+++ b/Detailed Protocol and Materials List/Social Interaction Chamber Materials.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elliemctaggart/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AAEE2F5-CBE2-A64D-A0A2-D64F1DDD13CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{72D378A0-BC16-5944-AF7B-3B1266190ED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17620" activeTab="4" xr2:uid="{DD47EE2A-7605-C446-9770-63AE1A0CDA1A}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17620" xr2:uid="{DD47EE2A-7605-C446-9770-63AE1A0CDA1A}"/>
   </bookViews>
   <sheets>
     <sheet name="Detailed Protocol" sheetId="8" r:id="rId1"/>
@@ -988,7 +988,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8C52D62-C1C2-49A3-B434-4F3EF1DF2721}">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
@@ -2093,7 +2093,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D82157B5-8E2C-094A-A74F-92DA4F6F95E8}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -2334,17 +2334,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a5f26fb6-5109-4de7-abc5-172a6b2dbab6" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a6241740-fd18-4816-b841-1ab3b6093ed9">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010085667585C9F7244B9E125384F842882D" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="227f2e08ceb4f0b39a3cb5ada822cfdc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a6241740-fd18-4816-b841-1ab3b6093ed9" xmlns:ns3="a5f26fb6-5109-4de7-abc5-172a6b2dbab6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ad3cc4f56124bba8647a7f41a7fe896a" ns2:_="" ns3:_="">
     <xsd:import namespace="a6241740-fd18-4816-b841-1ab3b6093ed9"/>
@@ -2539,6 +2528,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a5f26fb6-5109-4de7-abc5-172a6b2dbab6" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a6241740-fd18-4816-b841-1ab3b6093ed9">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{870DFE14-D417-4609-9277-5E75292B480D}">
   <ds:schemaRefs>
@@ -2548,17 +2548,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C9BB41A-B45A-4011-ADD4-DBE9A172D8F9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a5f26fb6-5109-4de7-abc5-172a6b2dbab6"/>
-    <ds:schemaRef ds:uri="a6241740-fd18-4816-b841-1ab3b6093ed9"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC41234C-C8EC-4617-A4BB-0AE632D71941}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2575,4 +2564,15 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C9BB41A-B45A-4011-ADD4-DBE9A172D8F9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a5f26fb6-5109-4de7-abc5-172a6b2dbab6"/>
+    <ds:schemaRef ds:uri="a6241740-fd18-4816-b841-1ab3b6093ed9"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>